--- a/bases/CFR.KOREA.xlsx
+++ b/bases/CFR.KOREA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\subnotificacaocovid19\bases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\covid19_subnotificacao\bases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6708834-A8F9-430D-8352-9E966F2BA2B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7CBA1C-7311-4CF3-B004-0C525D424DA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{32FF088E-64F7-4CD2-B49D-E0D2EACEE38E}"/>
   </bookViews>
@@ -69,10 +69,10 @@
     <t>Faixa_Etaria</t>
   </si>
   <si>
-    <t>CFR.KS</t>
-  </si>
-  <si>
     <t>Faixa_Etaria.id</t>
+  </si>
+  <si>
+    <t>CFR</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,13 +470,13 @@
         <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -532,7 +532,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -560,7 +560,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="2">
-        <v>0.6</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -574,7 +574,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="2">
-        <v>1.7</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -588,7 +588,7 @@
         <v>38</v>
       </c>
       <c r="D9" s="2">
-        <v>6.4</v>
+        <v>6.4000000000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -602,7 +602,7 @@
         <v>52</v>
       </c>
       <c r="D10" s="2">
-        <v>13.6</v>
+        <v>0.13600000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
